--- a/WorkBot/refactor/data/orders/SANICO/SANICO_Downtown_2025-09-26.xlsx
+++ b/WorkBot/refactor/data/orders/SANICO/SANICO_Downtown_2025-09-26.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>68.79</t>
+          <t>206.37</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>108.38</t>
+          <t>216.76</t>
         </is>
       </c>
     </row>
